--- a/Converter/games.xlsx
+++ b/Converter/games.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onehungary-my.sharepoint.com/personal/krisztian_topler_one_hu/Documents/!Private/MystiGo/Weboldal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="917" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D22451-3241-4CDD-B1A3-1F51B95D8430}"/>
+  <xr:revisionPtr revIDLastSave="938" documentId="14_{57ED439C-6DE0-4810-B02A-04617AF2F7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F182FB60-2E43-4C43-81EF-058BB6FC811B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28908" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2586" uniqueCount="1931">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1940">
   <si>
     <t>id</t>
   </si>
@@ -6291,9 +6291,6 @@
     <t>19.178449</t>
   </si>
   <si>
-    <t>19.186313</t>
-  </si>
-  <si>
     <t>47.425815</t>
   </si>
   <si>
@@ -6312,13 +6309,43 @@
     <t>47.426861</t>
   </si>
   <si>
-    <t>47.422781</t>
-  </si>
-  <si>
     <t>A bokrok itt hirtelen félrehúzódtak, mintha utat akarnának nyitni előtte. Mysti megállt, és hegyezte a fülét. Valahol egészen közel egy ismerős nesz motoszkált… talán egy újabb nyom.</t>
   </si>
   <si>
     <t>A fatörzs oldalán furcsa jelek futottak végig, alig láthatóan. Mysti óvatosan végigsimította őket a mancsával. „Ezek nem véletlenek” – gondolta –, „valaki már járt itt előttem.”</t>
+  </si>
+  <si>
+    <t>47.425878</t>
+  </si>
+  <si>
+    <t>19.179726</t>
+  </si>
+  <si>
+    <t>47.424223</t>
+  </si>
+  <si>
+    <t>19.182065</t>
+  </si>
+  <si>
+    <t>47.423653</t>
+  </si>
+  <si>
+    <t>19.184521</t>
+  </si>
+  <si>
+    <t>47.422485</t>
+  </si>
+  <si>
+    <t>19.186828</t>
+  </si>
+  <si>
+    <t>47.422797</t>
+  </si>
+  <si>
+    <t>19.189467</t>
+  </si>
+  <si>
+    <t>bonuspoint</t>
   </si>
 </sst>
 </file>
@@ -6682,13 +6709,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Q36"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C17" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C34" sqref="C34"/>
+      <selection pane="bottomRight" activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -6711,7 +6738,7 @@
     <col min="16" max="16384" width="22.44140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="13.8">
+    <row r="1" spans="1:18" ht="13.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6763,8 +6790,11 @@
       <c r="Q1" s="2" t="s">
         <v>1719</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R1" s="2" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>829</v>
       </c>
@@ -6807,7 +6837,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" customHeight="1">
+    <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>606</v>
       </c>
@@ -6849,7 +6879,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15.75" customHeight="1">
+    <row r="4" spans="1:18" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>559</v>
       </c>
@@ -6894,7 +6924,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15.75" customHeight="1">
+    <row r="5" spans="1:18" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -6935,7 +6965,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15.75" customHeight="1">
+    <row r="6" spans="1:18" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>339</v>
       </c>
@@ -6976,7 +7006,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15.75" customHeight="1">
+    <row r="7" spans="1:18" ht="15.75" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>214</v>
       </c>
@@ -7017,7 +7047,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15.75" customHeight="1">
+    <row r="8" spans="1:18" ht="15.75" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>497</v>
       </c>
@@ -7058,7 +7088,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15.75" customHeight="1">
+    <row r="9" spans="1:18" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>536</v>
       </c>
@@ -7107,8 +7137,11 @@
       <c r="Q9" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>539</v>
       </c>
@@ -7157,8 +7190,11 @@
       <c r="Q10" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R10" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>412</v>
       </c>
@@ -7202,7 +7238,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15.75" customHeight="1">
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>77</v>
       </c>
@@ -7240,7 +7276,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15.75" customHeight="1">
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>115</v>
       </c>
@@ -7278,7 +7314,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15.75" customHeight="1">
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>141</v>
       </c>
@@ -7319,7 +7355,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="15.75" customHeight="1">
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>1735</v>
       </c>
@@ -7360,7 +7396,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15.75" customHeight="1">
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>248</v>
       </c>
@@ -7404,7 +7440,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:18" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
         <v>297</v>
       </c>
@@ -7445,7 +7481,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15.75" customHeight="1">
+    <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="A18" s="3" t="s">
         <v>755</v>
       </c>
@@ -7488,8 +7524,11 @@
       <c r="O18" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="15.75" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>763</v>
       </c>
@@ -7532,8 +7571,11 @@
       <c r="O19" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" customHeight="1">
+      <c r="R19" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>764</v>
       </c>
@@ -7583,7 +7625,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" customHeight="1">
+    <row r="21" spans="1:18" ht="15.75" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>878</v>
       </c>
@@ -7621,7 +7663,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="22" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="22" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A22" s="10" t="s">
         <v>885</v>
       </c>
@@ -7660,7 +7702,7 @@
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="23" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A23" s="10" t="s">
         <v>891</v>
       </c>
@@ -7696,7 +7738,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="24" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
         <v>897</v>
       </c>
@@ -7737,7 +7779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="25" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
         <v>903</v>
       </c>
@@ -7778,7 +7820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="26" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
         <v>909</v>
       </c>
@@ -7817,7 +7859,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="27" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="27" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
         <v>915</v>
       </c>
@@ -7853,7 +7895,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="28" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="28" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
         <v>921</v>
       </c>
@@ -7897,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" customFormat="1" ht="15.75" customHeight="1">
+    <row r="29" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
         <v>927</v>
       </c>
@@ -7941,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15.75" customHeight="1">
+    <row r="30" spans="1:18" ht="15.75" customHeight="1">
       <c r="A30" s="10" t="s">
         <v>859</v>
       </c>
@@ -7983,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15.75" customHeight="1">
+    <row r="31" spans="1:18" ht="15.75" customHeight="1">
       <c r="A31" s="10" t="s">
         <v>865</v>
       </c>
@@ -8025,7 +8067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15.75" customHeight="1">
+    <row r="32" spans="1:18" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
         <v>871</v>
       </c>
@@ -8069,7 +8111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="15.75" customHeight="1">
+    <row r="33" spans="1:18" customFormat="1" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
         <v>1305</v>
       </c>
@@ -8110,7 +8152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:16" ht="15.75" customHeight="1">
+    <row r="34" spans="1:18" ht="15.75" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>1767</v>
       </c>
@@ -8157,7 +8199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:16" ht="15.75" customHeight="1">
+    <row r="35" spans="1:18" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>1807</v>
       </c>
@@ -8192,7 +8234,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="36" spans="1:16" ht="15.75" customHeight="1">
+    <row r="36" spans="1:18" ht="15.75" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>1888</v>
       </c>
@@ -8231,6 +8273,9 @@
       </c>
       <c r="O36" s="2" t="s">
         <v>813</v>
+      </c>
+      <c r="R36" s="2">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -8255,11 +8300,11 @@
   </sheetPr>
   <dimension ref="A1:L299"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C284" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D284" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F299" sqref="F299"/>
+      <selection pane="bottomRight" activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -16608,7 +16653,7 @@
         <v>2</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>1922</v>
+        <v>1921</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>1915</v>
@@ -16634,7 +16679,7 @@
         <v>3</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>1916</v>
@@ -16660,7 +16705,7 @@
         <v>4</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>1917</v>
@@ -16686,7 +16731,7 @@
         <v>5</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>1925</v>
+        <v>1924</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>1918</v>
@@ -16712,7 +16757,7 @@
         <v>6</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>1926</v>
+        <v>1925</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>1919</v>
@@ -16738,7 +16783,7 @@
         <v>7</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>1920</v>
@@ -16764,10 +16809,10 @@
         <v>8</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>1920</v>
+        <v>1930</v>
       </c>
       <c r="F295" t="s">
         <v>1905</v>
@@ -16790,10 +16835,10 @@
         <v>9</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>1927</v>
+        <v>1931</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>1920</v>
+        <v>1932</v>
       </c>
       <c r="F296" t="s">
         <v>1902</v>
@@ -16816,13 +16861,13 @@
         <v>10</v>
       </c>
       <c r="C297" s="2" t="s">
+        <v>1933</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>1934</v>
+      </c>
+      <c r="F297" s="2" t="s">
         <v>1927</v>
-      </c>
-      <c r="D297" s="2" t="s">
-        <v>1920</v>
-      </c>
-      <c r="F297" s="2" t="s">
-        <v>1929</v>
       </c>
       <c r="G297" s="2" t="s">
         <v>1904</v>
@@ -16842,13 +16887,13 @@
         <v>11</v>
       </c>
       <c r="C298" s="2" t="s">
+        <v>1935</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>1936</v>
+      </c>
+      <c r="F298" s="2" t="s">
         <v>1928</v>
-      </c>
-      <c r="D298" s="2" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F298" s="2" t="s">
-        <v>1930</v>
       </c>
       <c r="G298" s="2" t="s">
         <v>1904</v>
@@ -16868,10 +16913,10 @@
         <v>12</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>1928</v>
+        <v>1937</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>1921</v>
+        <v>1938</v>
       </c>
       <c r="F299" t="s">
         <v>1903</v>
